--- a/Login Test Report (Vishal Kumar Giri).xlsx
+++ b/Login Test Report (Vishal Kumar Giri).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="182">
   <si>
     <t>Test Cases</t>
   </si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>Negative values</t>
+  </si>
+  <si>
+    <t>Functional</t>
   </si>
 </sst>
 </file>
@@ -1620,22 +1623,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,7 +1947,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -2106,7 +2109,7 @@
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="M7" s="69"/>
     </row>
@@ -2150,7 +2153,7 @@
       <c r="E9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="72" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="51" t="s">
@@ -2161,7 +2164,7 @@
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="72.75" customHeight="1">
@@ -2188,7 +2191,7 @@
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="72.75" customHeight="1">
@@ -2210,7 +2213,7 @@
       <c r="G11" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="62"/>
@@ -2235,12 +2238,12 @@
       <c r="G12" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="62.25" customHeight="1">
@@ -2289,7 +2292,7 @@
       <c r="G14" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="62"/>
@@ -2316,7 +2319,7 @@
       <c r="G15" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="62"/>
@@ -2451,7 +2454,7 @@
       <c r="G20" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="62"/>
@@ -2478,7 +2481,7 @@
       <c r="G21" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="62"/>
@@ -2499,13 +2502,13 @@
       <c r="E22" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="73" t="s">
         <v>153</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="H22" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="62"/>
@@ -2526,7 +2529,7 @@
       <c r="E23" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="73" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="51" t="s">
@@ -2559,7 +2562,7 @@
       <c r="G24" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="62"/>
@@ -2613,7 +2616,7 @@
       <c r="G26" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="62"/>
@@ -2640,7 +2643,7 @@
       <c r="G27" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="62"/>
@@ -2667,7 +2670,7 @@
       <c r="G28" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="62"/>
@@ -2694,7 +2697,7 @@
       <c r="G29" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="73" t="s">
+      <c r="H29" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="62"/>
@@ -2721,7 +2724,7 @@
       <c r="G30" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="62"/>
@@ -2742,7 +2745,7 @@
       <c r="E31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="73" t="s">
         <v>175</v>
       </c>
       <c r="G31" s="51" t="s">
@@ -2769,13 +2772,13 @@
       <c r="E32" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="74" t="s">
         <v>177</v>
       </c>
       <c r="G32" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="62"/>
@@ -2796,7 +2799,7 @@
       <c r="E33" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="73" t="s">
         <v>178</v>
       </c>
       <c r="G33" s="51" t="s">
@@ -2807,7 +2810,7 @@
       </c>
       <c r="I33" s="62"/>
       <c r="J33" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="62.25" customHeight="1">
@@ -2829,12 +2832,12 @@
       <c r="G34" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="62"/>
       <c r="J34" s="68" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="62.25" customHeight="1">
@@ -3051,30 +3054,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="71" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="71" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="71" t="s">
+      <c r="L1" s="76"/>
+      <c r="M1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="71" t="s">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="72"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="2:18">
       <c r="B2" s="7" t="s">
